--- a/biology/Zoologie/Agama_kirkii/Agama_kirkii.xlsx
+++ b/biology/Zoologie/Agama_kirkii/Agama_kirkii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agama kirkii est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agama kirkii est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mozambique, au Malawi, en Zambie, au Zimbabwe et au Botswana[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mozambique, au Malawi, en Zambie, au Zimbabwe et au Botswana.
 Sa présence est incertaine en Tanzanie.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Boulenger indique que le spécimen en sa possession, un mâle, mesure 209 mm dont 130 mm pour la queue. Son dos est olive avec un motif en réseau sombre entourant des ocelles claires et un collier noir. Sa face ventrale est blanchâtre avec des lignes sombres assez peu distinctes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Boulenger indique que le spécimen en sa possession, un mâle, mesure 209 mm dont 130 mm pour la queue. Son dos est olive avec un motif en réseau sombre entourant des ocelles claires et un collier noir. Sa face ventrale est blanchâtre avec des lignes sombres assez peu distinctes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 mars 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 mars 2012) :
 Agama kirkii fitzsimonsi Loveridge, 1950
 Agama kirkii kirkii Boulenger, 1885</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Kirk[4]. La sous-espèce Agama kirkii fitzsimonsi est nommée en l'honneur de Vivian Frederick Maynard FitzSimons[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Kirk. La sous-espèce Agama kirkii fitzsimonsi est nommée en l'honneur de Vivian Frederick Maynard FitzSimons
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boulenger, 1885 : Catalogue of the lizards in the British Museum (Natural History) I. Geckonidae, Eublepharidae, Uroplatidae, Pygopodidae, Agamidae, Second edition, London, vol. 1, p. 1-436 (texte intégral).
 Loveridge 1950 : A new agamid lizard (Agama kirkii fitzsimonsi) from Southern Rhodesi. Proceedings of the Biological Society Washington, vol. 63, p. 127-130 (texte intégral).</t>
